--- a/output/POLO_07013315000112.xlsx
+++ b/output/POLO_07013315000112.xlsx
@@ -2495,10 +2495,10 @@
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>7.165012094063403</v>
+        <v>7.175745635438673</v>
       </c>
       <c r="C192">
-        <v>0.02722395917082698</v>
+        <v>0.02857432469881505</v>
       </c>
     </row>
   </sheetData>

--- a/output/POLO_07013315000112.xlsx
+++ b/output/POLO_07013315000112.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>POLO NORTE I FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,2119 +383,1546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2">
-        <v>0.0187943463683844</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38411</v>
       </c>
       <c r="B3">
-        <v>0.03670382594923227</v>
-      </c>
-      <c r="C3">
         <v>0.01757909203627639</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4">
-        <v>0.06639057628722345</v>
-      </c>
-      <c r="C4">
         <v>0.02863571021435107</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38472</v>
       </c>
       <c r="B5">
-        <v>0.08917228246196696</v>
-      </c>
-      <c r="C5">
         <v>0.02136337912330477</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
       <c r="B6">
-        <v>0.1193236335191683</v>
-      </c>
-      <c r="C6">
         <v>0.02768281156498698</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38533</v>
       </c>
       <c r="B7">
-        <v>0.1308616486997838</v>
-      </c>
-      <c r="C7">
         <v>0.01030802427028177</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8">
-        <v>0.1393531623005988</v>
-      </c>
-      <c r="C8">
         <v>0.00750888812135253</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
       <c r="B9">
-        <v>0.1719441139771991</v>
-      </c>
-      <c r="C9">
         <v>0.02860478449964732</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>38625</v>
       </c>
       <c r="B10">
-        <v>0.1945189218764876</v>
-      </c>
-      <c r="C10">
         <v>0.01926270001278207</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11">
-        <v>0.208534927365436</v>
-      </c>
-      <c r="C11">
         <v>0.0117335985493896</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>38686</v>
       </c>
       <c r="B12">
-        <v>0.2284400199334962</v>
-      </c>
-      <c r="C12">
         <v>0.01647043218804822</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13">
-        <v>0.2804887155053903</v>
-      </c>
-      <c r="C13">
         <v>0.04236974921633685</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14">
-        <v>0.3403986130015211</v>
-      </c>
-      <c r="C14">
         <v>0.04678674381951509</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>38776</v>
       </c>
       <c r="B15">
-        <v>0.403558656166219</v>
-      </c>
-      <c r="C15">
         <v>0.04712034356948869</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16">
-        <v>0.423189202231665</v>
-      </c>
-      <c r="C16">
         <v>0.01398626696447902</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>38837</v>
       </c>
       <c r="B17">
-        <v>0.4475730465100309</v>
-      </c>
-      <c r="C17">
         <v>0.01713324148337425</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18">
-        <v>0.4266153071171714</v>
-      </c>
-      <c r="C18">
         <v>-0.01447784582849665</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>38898</v>
       </c>
       <c r="B19">
-        <v>0.4452815648119022</v>
-      </c>
-      <c r="C19">
         <v>0.01308429651750376</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20">
-        <v>0.4677547060906495</v>
-      </c>
-      <c r="C20">
         <v>0.01554931705066909</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21">
-        <v>0.5073507948846401</v>
-      </c>
-      <c r="C21">
         <v>0.02697732027680178</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>38990</v>
       </c>
       <c r="B22">
-        <v>0.5353007906439977</v>
-      </c>
-      <c r="C22">
         <v>0.0185424626133539</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23">
-        <v>0.5556226425299529</v>
-      </c>
-      <c r="C23">
         <v>0.01323639772075613</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39051</v>
       </c>
       <c r="B24">
-        <v>0.6005193934518516</v>
-      </c>
-      <c r="C24">
         <v>0.02886095232509711</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25">
-        <v>0.622009469216992</v>
-      </c>
-      <c r="C25">
         <v>0.013426938688192</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26">
-        <v>0.6228843305947103</v>
-      </c>
-      <c r="C26">
         <v>0.0005393688472981051</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39141</v>
       </c>
       <c r="B27">
-        <v>0.6225108373887864</v>
-      </c>
-      <c r="C27">
         <v>-0.0002301416058326788</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28">
-        <v>0.6382941673832596</v>
-      </c>
-      <c r="C28">
         <v>0.009727719304404969</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39202</v>
       </c>
       <c r="B29">
-        <v>0.6712940197597517</v>
-      </c>
-      <c r="C29">
         <v>0.02014281258731487</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
       <c r="B30">
-        <v>0.6808855941711163</v>
-      </c>
-      <c r="C30">
         <v>0.005739010789222787</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39263</v>
       </c>
       <c r="B31">
-        <v>0.7144315767858522</v>
-      </c>
-      <c r="C31">
         <v>0.01995732650161619</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
       <c r="B32">
-        <v>0.7432171796888745</v>
-      </c>
-      <c r="C32">
         <v>0.01679017307706632</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33">
-        <v>0.7479753834668026</v>
-      </c>
-      <c r="C33">
         <v>0.002729553054759082</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39355</v>
       </c>
       <c r="B34">
-        <v>0.7210521176066178</v>
-      </c>
-      <c r="C34">
         <v>-0.01540254291612919</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35">
-        <v>0.7604084456965949</v>
-      </c>
-      <c r="C35">
         <v>0.02286759807408267</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39416</v>
       </c>
       <c r="B36">
-        <v>0.7822612612806017</v>
-      </c>
-      <c r="C36">
         <v>0.01241349167429129</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37">
-        <v>0.842299325162307</v>
-      </c>
-      <c r="C37">
         <v>0.03368645505910073</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38">
-        <v>0.8680776612916019</v>
-      </c>
-      <c r="C38">
         <v>0.01399247981976215</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39507</v>
       </c>
       <c r="B39">
-        <v>0.900403906737574</v>
-      </c>
-      <c r="C39">
         <v>0.01730455115213014</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
       <c r="B40">
-        <v>0.8933665871709335</v>
-      </c>
-      <c r="C40">
         <v>-0.00370306519666197</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>39568</v>
       </c>
       <c r="B41">
-        <v>0.8921437415253328</v>
-      </c>
-      <c r="C41">
         <v>-0.0006458578353957245</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42">
-        <v>0.9450353977314085</v>
-      </c>
-      <c r="C42">
         <v>0.02795329712289063</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>39629</v>
       </c>
       <c r="B43">
-        <v>0.9771930860209086</v>
-      </c>
-      <c r="C43">
         <v>0.01653321493634885</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44">
-        <v>1.003147876780639</v>
-      </c>
-      <c r="C44">
         <v>0.0131270895813036</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45">
-        <v>1.00529656282408</v>
-      </c>
-      <c r="C45">
         <v>0.001072654729262768</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>39721</v>
       </c>
       <c r="B46">
-        <v>0.9324566936478247</v>
-      </c>
-      <c r="C46">
         <v>-0.03632373910504005</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47">
-        <v>0.9068616896539663</v>
-      </c>
-      <c r="C47">
         <v>-0.01324480081649004</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>39782</v>
       </c>
       <c r="B48">
-        <v>0.9773695503653339</v>
-      </c>
-      <c r="C48">
         <v>0.03697586515787754</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49">
-        <v>1.037855225197538</v>
-      </c>
-      <c r="C49">
         <v>0.03058895835683795</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
       <c r="B50">
-        <v>1.09436333192542</v>
-      </c>
-      <c r="C50">
         <v>0.0277292057007652</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>39872</v>
       </c>
       <c r="B51">
-        <v>1.17829350819189</v>
-      </c>
-      <c r="C51">
         <v>0.04007431518069526</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52">
-        <v>1.195876257715228</v>
-      </c>
-      <c r="C52">
         <v>0.008071799992615203</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>39933</v>
       </c>
       <c r="B53">
-        <v>1.407950127675343</v>
-      </c>
-      <c r="C53">
         <v>0.09657824261043513</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54">
-        <v>1.531760944648237</v>
-      </c>
-      <c r="C54">
         <v>0.05141751714451903</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>39994</v>
       </c>
       <c r="B55">
-        <v>1.56737997046539</v>
-      </c>
-      <c r="C55">
         <v>0.01406887403506496</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56">
-        <v>1.723675089217414</v>
-      </c>
-      <c r="C56">
         <v>0.06087728367051626</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57">
-        <v>1.827724172688361</v>
-      </c>
-      <c r="C57">
         <v>0.03820172379696118</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40086</v>
       </c>
       <c r="B58">
-        <v>1.918864519261575</v>
-      </c>
-      <c r="C58">
         <v>0.03223098895341181</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59">
-        <v>1.91109570709732</v>
-      </c>
-      <c r="C59">
         <v>-0.002661587104501928</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40147</v>
       </c>
       <c r="B60">
-        <v>1.9627784669476</v>
-      </c>
-      <c r="C60">
         <v>0.01775371373887724</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61">
-        <v>2.040799079043796</v>
-      </c>
-      <c r="C61">
         <v>0.02633359630717758</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62">
-        <v>2.067045843204407</v>
-      </c>
-      <c r="C62">
         <v>0.00863153515847026</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40237</v>
       </c>
       <c r="B63">
-        <v>2.04620259289904</v>
-      </c>
-      <c r="C63">
         <v>-0.006795871783771501</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
       <c r="B64">
-        <v>2.051479203187424</v>
-      </c>
-      <c r="C64">
         <v>0.001732192829421164</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40298</v>
       </c>
       <c r="B65">
-        <v>2.012284282757194</v>
-      </c>
-      <c r="C65">
         <v>-0.01284456416720414</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
       <c r="B66">
-        <v>2.09882808577597</v>
-      </c>
-      <c r="C66">
         <v>0.02873029066817057</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40359</v>
       </c>
       <c r="B67">
-        <v>2.159628474459914</v>
-      </c>
-      <c r="C67">
         <v>0.01962044585920264</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68">
-        <v>2.194405569325838</v>
-      </c>
-      <c r="C68">
         <v>0.01100670384098512</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69">
-        <v>2.222487500498935</v>
-      </c>
-      <c r="C69">
         <v>0.00879097239334703</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40451</v>
       </c>
       <c r="B70">
-        <v>2.212720248576344</v>
-      </c>
-      <c r="C70">
         <v>-0.003030966581275552</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71">
-        <v>2.263486697453086</v>
-      </c>
-      <c r="C71">
         <v>0.01580170227994104</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40512</v>
       </c>
       <c r="B72">
-        <v>2.268359963443924</v>
-      </c>
-      <c r="C72">
         <v>0.001493269757968152</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73">
-        <v>2.345436200849141</v>
-      </c>
-      <c r="C73">
         <v>0.02358254239658475</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74">
-        <v>2.397889552107247</v>
-      </c>
-      <c r="C74">
         <v>0.01567907684050063</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>40602</v>
       </c>
       <c r="B75">
-        <v>2.434621062928306</v>
-      </c>
-      <c r="C75">
         <v>0.01081009557779167</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76">
-        <v>2.505861377922309</v>
-      </c>
-      <c r="C76">
         <v>0.02074182673685265</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>40663</v>
       </c>
       <c r="B77">
-        <v>2.477303257239796</v>
-      </c>
-      <c r="C77">
         <v>-0.008145821412778753</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78">
-        <v>2.494222958939867</v>
-      </c>
-      <c r="C78">
         <v>0.00486575384670429</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>40724</v>
       </c>
       <c r="B79">
-        <v>2.459423181907025</v>
-      </c>
-      <c r="C79">
         <v>-0.009959231978545535</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80">
-        <v>2.34714463914659</v>
-      </c>
-      <c r="C80">
         <v>-0.03245585661437966</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81">
-        <v>2.272894512313449</v>
-      </c>
-      <c r="C81">
         <v>-0.02218312467431105</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>40816</v>
       </c>
       <c r="B82">
-        <v>2.280882268100901</v>
-      </c>
-      <c r="C82">
         <v>0.002440578441315511</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83">
-        <v>2.314447843833698</v>
-      </c>
-      <c r="C83">
         <v>0.01023065535119816</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>40877</v>
       </c>
       <c r="B84">
-        <v>2.152332267342724</v>
-      </c>
-      <c r="C84">
         <v>-0.04891178987552303</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
       <c r="B85">
-        <v>2.096959191789805</v>
-      </c>
-      <c r="C85">
         <v>-0.01756574842270542</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86">
-        <v>2.185606122238384</v>
-      </c>
-      <c r="C86">
         <v>0.02862386132939254</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>40968</v>
       </c>
       <c r="B87">
-        <v>2.179873984097557</v>
-      </c>
-      <c r="C87">
         <v>-0.001799386967777261</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88">
-        <v>2.223490071704692</v>
-      </c>
-      <c r="C88">
         <v>0.01371629436426036</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41029</v>
       </c>
       <c r="B89">
-        <v>2.240315819692373</v>
-      </c>
-      <c r="C89">
         <v>0.00521973004830234</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90">
-        <v>2.052035193125634</v>
-      </c>
-      <c r="C90">
         <v>-0.05810564063616919</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41090</v>
       </c>
       <c r="B91">
-        <v>1.980287283292173</v>
-      </c>
-      <c r="C91">
         <v>-0.02350821838328232</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92">
-        <v>2.033459848664388</v>
-      </c>
-      <c r="C92">
         <v>0.01784142276159284</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93">
-        <v>2.16166504162945</v>
-      </c>
-      <c r="C93">
         <v>0.04226368548161608</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41182</v>
       </c>
       <c r="B94">
-        <v>2.35194454508408</v>
-      </c>
-      <c r="C94">
         <v>0.0601833214300791</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
       <c r="B95">
-        <v>2.237857645923875</v>
-      </c>
-      <c r="C95">
         <v>-0.03403603419618717</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41243</v>
       </c>
       <c r="B96">
-        <v>2.248425495769756</v>
-      </c>
-      <c r="C96">
         <v>0.003263840168879817</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97">
-        <v>2.422622808610042</v>
-      </c>
-      <c r="C97">
         <v>0.05362515257534239</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98">
-        <v>2.530875504735284</v>
-      </c>
-      <c r="C98">
         <v>0.0316285790689288</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41333</v>
       </c>
       <c r="B99">
-        <v>2.456283445450103</v>
-      </c>
-      <c r="C99">
         <v>-0.02112565543167555</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100">
-        <v>2.626970015409011</v>
-      </c>
-      <c r="C100">
         <v>0.04938442481724192</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41394</v>
       </c>
       <c r="B101">
-        <v>2.553733446304448</v>
-      </c>
-      <c r="C101">
         <v>-0.02019221796524939</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
       <c r="B102">
-        <v>2.510160896801008</v>
-      </c>
-      <c r="C102">
         <v>-0.01226106295303386</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41455</v>
       </c>
       <c r="B103">
-        <v>2.261132745084529</v>
-      </c>
-      <c r="C103">
         <v>-0.0709449392885183</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104">
-        <v>2.416632278332161</v>
-      </c>
-      <c r="C104">
         <v>0.04768267513244129</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105">
-        <v>2.484191894473739</v>
-      </c>
-      <c r="C105">
         <v>0.0197737452081197</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>41547</v>
       </c>
       <c r="B106">
-        <v>2.537352686489935</v>
-      </c>
-      <c r="C106">
         <v>0.01525771071923843</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
       <c r="B107">
-        <v>2.55659561520783</v>
-      </c>
-      <c r="C107">
         <v>0.005439923700961247</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>41608</v>
       </c>
       <c r="B108">
-        <v>2.632787529808957</v>
-      </c>
-      <c r="C108">
         <v>0.0214227094796311</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109">
-        <v>2.795238753800368</v>
-      </c>
-      <c r="C109">
         <v>0.04471806365178588</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110">
-        <v>3.065978207692861</v>
-      </c>
-      <c r="C110">
         <v>0.07133660658934504</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>41698</v>
       </c>
       <c r="B111">
-        <v>3.033929860076092</v>
-      </c>
-      <c r="C111">
         <v>-0.007882075598962368</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112">
-        <v>3.099456959782012</v>
-      </c>
-      <c r="C112">
         <v>0.01624398588444587</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>41759</v>
       </c>
       <c r="B113">
-        <v>3.019576371142576</v>
-      </c>
-      <c r="C113">
         <v>-0.0194856512516437</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114">
-        <v>3.21181437042819</v>
-      </c>
-      <c r="C114">
         <v>0.04782543769182568</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>41820</v>
       </c>
       <c r="B115">
-        <v>3.211982694448899</v>
-      </c>
-      <c r="C115">
         <v>3.996472918910143e-05</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
       <c r="B116">
-        <v>3.390017072240487</v>
-      </c>
-      <c r="C116">
         <v>0.04226854446154893</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
       <c r="B117">
-        <v>3.390238211225451</v>
-      </c>
-      <c r="C117">
         <v>5.037314919853486e-05</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>41912</v>
       </c>
       <c r="B118">
-        <v>3.516721521730744</v>
-      </c>
-      <c r="C118">
         <v>0.02881012474035849</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
       <c r="B119">
-        <v>3.276502259100112</v>
-      </c>
-      <c r="C119">
         <v>-0.05318443067054168</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>41973</v>
       </c>
       <c r="B120">
-        <v>3.056653282310147</v>
-      </c>
-      <c r="C120">
         <v>-0.05140859596698244</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121">
-        <v>2.996484672115289</v>
-      </c>
-      <c r="C121">
         <v>-0.01483208103025091</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122">
-        <v>2.971683913095186</v>
-      </c>
-      <c r="C122">
         <v>-0.006205643472911526</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42063</v>
       </c>
       <c r="B123">
-        <v>2.88081244976835</v>
-      </c>
-      <c r="C123">
         <v>-0.02287983266423099</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
       <c r="B124">
-        <v>2.97019739090191</v>
-      </c>
-      <c r="C124">
         <v>0.02303253308180242</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42124</v>
       </c>
       <c r="B125">
-        <v>3.154375809157163</v>
-      </c>
-      <c r="C125">
         <v>0.04639024212683096</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
       <c r="B126">
-        <v>3.2327392376785</v>
-      </c>
-      <c r="C126">
         <v>0.01886286463266207</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42185</v>
       </c>
       <c r="B127">
-        <v>3.230615293167881</v>
-      </c>
-      <c r="C127">
         <v>-0.000501789595662383</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128">
-        <v>3.430821270557074</v>
-      </c>
-      <c r="C128">
         <v>0.04732313470159055</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129">
-        <v>3.30794047099777</v>
-      </c>
-      <c r="C129">
         <v>-0.02773318806060865</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42277</v>
       </c>
       <c r="B130">
-        <v>3.325410402239914</v>
-      </c>
-      <c r="C130">
         <v>0.004055286130288049</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131">
-        <v>3.407906006732242</v>
-      </c>
-      <c r="C131">
         <v>0.01907231842083879</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42338</v>
       </c>
       <c r="B132">
-        <v>3.359587891352012</v>
-      </c>
-      <c r="C132">
         <v>-0.01096169367187805</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
       <c r="B133">
-        <v>3.437088076427809</v>
-      </c>
-      <c r="C133">
         <v>0.0177769520897908</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134">
-        <v>3.348441408256964</v>
-      </c>
-      <c r="C134">
         <v>-0.01997856852150048</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42429</v>
       </c>
       <c r="B135">
-        <v>3.480523512960779</v>
-      </c>
-      <c r="C135">
         <v>0.03037458535212512</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136">
-        <v>3.428442644653625</v>
-      </c>
-      <c r="C136">
         <v>-0.01162383550861867</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42490</v>
       </c>
       <c r="B137">
-        <v>3.338761154829841</v>
-      </c>
-      <c r="C137">
         <v>-0.02025124790360666</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138">
-        <v>3.441807356247348</v>
-      </c>
-      <c r="C138">
         <v>0.02375014381761886</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>42551</v>
       </c>
       <c r="B139">
-        <v>3.423044298641122</v>
-      </c>
-      <c r="C139">
         <v>-0.004224194365348932</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140">
-        <v>3.57214257468084</v>
-      </c>
-      <c r="C140">
         <v>0.03370942409180144</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141">
-        <v>3.799116471800302</v>
-      </c>
-      <c r="C141">
         <v>0.04964278637686736</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>42643</v>
       </c>
       <c r="B142">
-        <v>3.840220055292225</v>
-      </c>
-      <c r="C142">
         <v>0.008564823073882177</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143">
-        <v>3.931616210081122</v>
-      </c>
-      <c r="C143">
         <v>0.01888264453781718</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>42704</v>
       </c>
       <c r="B144">
-        <v>4.090451644102055</v>
-      </c>
-      <c r="C144">
         <v>0.03220758210994679</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145">
-        <v>4.141591897032404</v>
-      </c>
-      <c r="C145">
         <v>0.01004630954300523</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
       <c r="B146">
-        <v>4.358470053939553</v>
-      </c>
-      <c r="C146">
         <v>0.04218113013448721</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>42794</v>
       </c>
       <c r="B147">
-        <v>4.387354914393568</v>
-      </c>
-      <c r="C147">
         <v>0.005390505155996816</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148">
-        <v>4.433784804947304</v>
-      </c>
-      <c r="C148">
         <v>0.008618309224381671</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>42855</v>
       </c>
       <c r="B149">
-        <v>4.525661967384715</v>
-      </c>
-      <c r="C149">
         <v>0.01690850221999218</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150">
-        <v>4.741377029399459</v>
-      </c>
-      <c r="C150">
         <v>0.03903877278197698</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>42916</v>
       </c>
       <c r="B151">
-        <v>4.871979265993227</v>
-      </c>
-      <c r="C151">
         <v>0.02274754574120497</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152">
-        <v>4.85804037015781</v>
-      </c>
-      <c r="C152">
         <v>-0.002373798544579753</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153">
-        <v>4.88339516660411</v>
-      </c>
-      <c r="C153">
         <v>0.004328204458177387</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43008</v>
       </c>
       <c r="B154">
-        <v>4.973771731276568</v>
-      </c>
-      <c r="C154">
         <v>0.01536129430595823</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
       <c r="B155">
-        <v>5.072881901611482</v>
-      </c>
-      <c r="C155">
         <v>0.01659088676187737</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43069</v>
       </c>
       <c r="B156">
-        <v>4.93117928451975</v>
-      </c>
-      <c r="C156">
         <v>-0.02333366915205948</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157">
-        <v>5.068065297324983</v>
-      </c>
-      <c r="C157">
         <v>0.02307905498026375</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
       <c r="B158">
-        <v>5.133403032507606</v>
-      </c>
-      <c r="C158">
         <v>0.01076747397748434</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43159</v>
       </c>
       <c r="B159">
-        <v>5.398544974448272</v>
-      </c>
-      <c r="C159">
         <v>0.04322917319070485</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160">
-        <v>5.728283250704028</v>
-      </c>
-      <c r="C160">
         <v>0.05153332164930036</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43220</v>
       </c>
       <c r="B161">
-        <v>6.064177884762916</v>
-      </c>
-      <c r="C161">
         <v>0.04992278439284514</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162">
-        <v>6.042603258427817</v>
-      </c>
-      <c r="C162">
         <v>-0.003054088768296048</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43281</v>
       </c>
       <c r="B163">
-        <v>6.124808492327633</v>
-      </c>
-      <c r="C163">
         <v>0.01167256352279145</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164">
-        <v>6.229698117649224</v>
-      </c>
-      <c r="C164">
         <v>0.01472174661740611</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165">
-        <v>6.178068600178763</v>
-      </c>
-      <c r="C165">
         <v>-0.007141310277454349</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43373</v>
       </c>
       <c r="B166">
-        <v>6.201902146917125</v>
-      </c>
-      <c r="C166">
         <v>0.003320328637952619</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167">
-        <v>6.333272089863656</v>
-      </c>
-      <c r="C167">
         <v>0.0182410063711802</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43434</v>
       </c>
       <c r="B168">
-        <v>6.364960883850316</v>
-      </c>
-      <c r="C168">
         <v>0.004321235268286427</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169">
-        <v>6.387804351574209</v>
-      </c>
-      <c r="C169">
         <v>0.003101641418623569</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
       <c r="B170">
-        <v>6.698221375209775</v>
-      </c>
-      <c r="C170">
         <v>0.04201749381322228</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43524</v>
       </c>
       <c r="B171">
-        <v>6.628977518320124</v>
-      </c>
-      <c r="C171">
         <v>-0.008994786394768362</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
       <c r="B172">
-        <v>6.530421492265298</v>
-      </c>
-      <c r="C172">
         <v>-0.01291864156345379</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>43585</v>
       </c>
       <c r="B173">
-        <v>6.473646950216549</v>
-      </c>
-      <c r="C173">
         <v>-0.007539357804482005</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
       <c r="B174">
-        <v>6.452873951487692</v>
-      </c>
-      <c r="C174">
         <v>-0.002779499602701185</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>43646</v>
       </c>
       <c r="B175">
-        <v>6.523402357288153</v>
-      </c>
-      <c r="C175">
         <v>0.009463249514153116</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
       <c r="B176">
-        <v>6.297645292854411</v>
-      </c>
-      <c r="C176">
         <v>-0.03000730968682586</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
       <c r="B177">
-        <v>6.240137499975837</v>
-      </c>
-      <c r="C177">
         <v>-0.007880321743629293</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>43738</v>
       </c>
       <c r="B178">
-        <v>6.306697973950167</v>
-      </c>
-      <c r="C178">
         <v>0.009193261036071876</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179">
-        <v>6.446027618680699</v>
-      </c>
-      <c r="C179">
         <v>0.01906875653369955</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>43799</v>
       </c>
       <c r="B180">
-        <v>6.660553649449432</v>
-      </c>
-      <c r="C180">
         <v>0.02881080245130008</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181">
-        <v>7.048088340658055</v>
-      </c>
-      <c r="C181">
         <v>0.0505883398175111</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182">
-        <v>7.238478146470438</v>
-      </c>
-      <c r="C182">
         <v>0.0236565253453489</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>43890</v>
       </c>
       <c r="B183">
-        <v>7.112889776160429</v>
-      </c>
-      <c r="C183">
         <v>-0.01524412252811691</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184">
-        <v>6.387535526611773</v>
-      </c>
-      <c r="C184">
         <v>-0.08940763027251974</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>43951</v>
       </c>
       <c r="B185">
-        <v>6.869740084417876</v>
-      </c>
-      <c r="C185">
         <v>0.06527272269203732</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186">
-        <v>6.968947792927533</v>
-      </c>
-      <c r="C186">
         <v>0.01260622427748137</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>44012</v>
       </c>
       <c r="B187">
-        <v>7.373485745579195</v>
-      </c>
-      <c r="C187">
         <v>0.05076428697533819</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
       <c r="B188">
-        <v>7.481062046858755</v>
-      </c>
-      <c r="C188">
         <v>0.01284725436313727</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189">
-        <v>7.444640859165903</v>
-      </c>
-      <c r="C189">
         <v>-0.004294413540618103</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>44104</v>
       </c>
       <c r="B190">
-        <v>7.18975827017305</v>
-      </c>
-      <c r="C190">
         <v>-0.03018276244586537</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191">
-        <v>6.948619209246428</v>
-      </c>
-      <c r="C191">
         <v>-0.02944397782836228</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>7.175745635438673</v>
-      </c>
-      <c r="C192">
-        <v>0.02857432469881505</v>
+        <v>0.02050059052254949</v>
       </c>
     </row>
   </sheetData>
